--- a/abbreviations.xlsx
+++ b/abbreviations.xlsx
@@ -272,7 +272,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -571,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,8 +898,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:B27">
-    <sortCondition ref="A1:A27"/>
+  <sortState ref="A1:C28">
+    <sortCondition ref="A7"/>
   </sortState>
   <conditionalFormatting sqref="A1:A27">
     <cfRule type="duplicateValues" dxfId="1" priority="55"/>
